--- a/TestCPy/bin/Debug/netcoreapp3.1/Players/Chicago_Bulls__.xlsx
+++ b/TestCPy/bin/Debug/netcoreapp3.1/Players/Chicago_Bulls__.xlsx
@@ -588,79 +588,79 @@
         <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F2" t="n">
-        <v>879</v>
+        <v>918</v>
       </c>
       <c r="G2" t="n">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="H2" t="n">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="I2" t="n">
-        <v>0.413</v>
+        <v>0.417</v>
       </c>
       <c r="J2" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K2" t="n">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="L2" t="n">
-        <v>0.426</v>
+        <v>0.427</v>
       </c>
       <c r="M2" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N2" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="O2" t="n">
-        <v>0.39</v>
+        <v>0.398</v>
       </c>
       <c r="P2" t="n">
-        <v>0.549</v>
+        <v>0.554</v>
       </c>
       <c r="Q2" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="R2" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="S2" t="n">
-        <v>0.727</v>
+        <v>0.786</v>
       </c>
       <c r="T2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="U2" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="V2" t="n">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="W2" t="n">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="X2" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Y2" t="n">
         <v>26</v>
       </c>
       <c r="Z2" t="n">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="AA2" t="n">
         <v>62</v>
       </c>
       <c r="AB2" t="n">
-        <v>311</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3">
@@ -676,64 +676,64 @@
         <v>26</v>
       </c>
       <c r="D3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F3" t="n">
-        <v>875</v>
+        <v>910</v>
       </c>
       <c r="G3" t="n">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="H3" t="n">
-        <v>484</v>
+        <v>505</v>
       </c>
       <c r="I3" t="n">
-        <v>0.49</v>
+        <v>0.487</v>
       </c>
       <c r="J3" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K3" t="n">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="L3" t="n">
-        <v>0.378</v>
+        <v>0.377</v>
       </c>
       <c r="M3" t="n">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="N3" t="n">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.554</v>
       </c>
       <c r="P3" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="Q3" t="n">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="R3" t="n">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="S3" t="n">
-        <v>0.864</v>
+        <v>0.848</v>
       </c>
       <c r="T3" t="n">
         <v>9</v>
       </c>
       <c r="U3" t="n">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="V3" t="n">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="W3" t="n">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="X3" t="n">
         <v>13</v>
@@ -742,13 +742,13 @@
         <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="AA3" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AB3" t="n">
-        <v>647</v>
+        <v>670</v>
       </c>
     </row>
     <row r="4">
@@ -940,61 +940,61 @@
         <v>31</v>
       </c>
       <c r="D6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6" t="n">
-        <v>599</v>
+        <v>630</v>
       </c>
       <c r="G6" t="n">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="H6" t="n">
-        <v>269</v>
+        <v>292</v>
       </c>
       <c r="I6" t="n">
-        <v>0.42</v>
+        <v>0.414</v>
       </c>
       <c r="J6" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K6" t="n">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="L6" t="n">
-        <v>0.361</v>
+        <v>0.344</v>
       </c>
       <c r="M6" t="n">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="N6" t="n">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="O6" t="n">
         <v>0.446</v>
       </c>
       <c r="P6" t="n">
-        <v>0.476</v>
+        <v>0.467</v>
       </c>
       <c r="Q6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R6" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="S6" t="n">
-        <v>0.633</v>
+        <v>0.625</v>
       </c>
       <c r="T6" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="U6" t="n">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="V6" t="n">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="W6" t="n">
         <v>69</v>
@@ -1003,16 +1003,16 @@
         <v>18</v>
       </c>
       <c r="Y6" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Z6" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AA6" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="AB6" t="n">
-        <v>275</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7">
@@ -1116,22 +1116,22 @@
         <v>22</v>
       </c>
       <c r="D8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>413</v>
+        <v>447</v>
       </c>
       <c r="G8" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H8" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I8" t="n">
-        <v>0.496</v>
+        <v>0.504</v>
       </c>
       <c r="J8" t="n">
         <v>17</v>
@@ -1143,25 +1143,25 @@
         <v>0.415</v>
       </c>
       <c r="M8" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N8" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O8" t="n">
-        <v>0.538</v>
+        <v>0.55</v>
       </c>
       <c r="P8" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.574</v>
       </c>
       <c r="Q8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="S8" t="n">
-        <v>0.588</v>
+        <v>0.579</v>
       </c>
       <c r="T8" t="n">
         <v>12</v>
@@ -1173,7 +1173,7 @@
         <v>52</v>
       </c>
       <c r="W8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X8" t="n">
         <v>10</v>
@@ -1185,10 +1185,10 @@
         <v>20</v>
       </c>
       <c r="AA8" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AB8" t="n">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9">
@@ -1204,79 +1204,79 @@
         <v>24</v>
       </c>
       <c r="D9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
-        <v>378</v>
+        <v>406</v>
       </c>
       <c r="G9" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H9" t="n">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="I9" t="n">
-        <v>0.587</v>
+        <v>0.586</v>
       </c>
       <c r="J9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K9" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L9" t="n">
-        <v>0.304</v>
+        <v>0.32</v>
       </c>
       <c r="M9" t="n">
+        <v>50</v>
+      </c>
+      <c r="N9" t="n">
+        <v>74</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.676</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.626</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>30</v>
+      </c>
+      <c r="R9" t="n">
+        <v>36</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.833</v>
+      </c>
+      <c r="T9" t="n">
+        <v>30</v>
+      </c>
+      <c r="U9" t="n">
         <v>47</v>
       </c>
-      <c r="N9" t="n">
-        <v>69</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.681</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>28</v>
-      </c>
-      <c r="R9" t="n">
-        <v>34</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.824</v>
-      </c>
-      <c r="T9" t="n">
-        <v>29</v>
-      </c>
-      <c r="U9" t="n">
-        <v>46</v>
-      </c>
       <c r="V9" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="W9" t="n">
         <v>12</v>
       </c>
       <c r="X9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y9" t="n">
         <v>21</v>
       </c>
       <c r="Z9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA9" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AB9" t="n">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10">
@@ -1292,22 +1292,22 @@
         <v>24</v>
       </c>
       <c r="D10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="G10" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H10" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.552</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1317,16 +1317,16 @@
       </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N10" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O10" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.552</v>
       </c>
       <c r="P10" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.552</v>
       </c>
       <c r="Q10" t="n">
         <v>5</v>
@@ -1338,16 +1338,16 @@
         <v>0.714</v>
       </c>
       <c r="T10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="U10" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="V10" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="W10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X10" t="n">
         <v>1</v>
@@ -1356,13 +1356,13 @@
         <v>11</v>
       </c>
       <c r="Z10" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AA10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB10" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -1378,79 +1378,79 @@
         <v>22</v>
       </c>
       <c r="D11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="G11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H11" t="n">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="I11" t="n">
-        <v>0.426</v>
+        <v>0.419</v>
       </c>
       <c r="J11" t="n">
         <v>8</v>
       </c>
       <c r="K11" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L11" t="n">
-        <v>0.333</v>
+        <v>0.296</v>
       </c>
       <c r="M11" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N11" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5</v>
+        <v>0.514</v>
       </c>
       <c r="P11" t="n">
-        <v>0.5</v>
+        <v>0.484</v>
       </c>
       <c r="Q11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="S11" t="n">
-        <v>0.636</v>
+        <v>0.667</v>
       </c>
       <c r="T11" t="n">
         <v>6</v>
       </c>
       <c r="U11" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="V11" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AA11" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AB11" t="n">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12">
@@ -1642,28 +1642,28 @@
         <v>25</v>
       </c>
       <c r="D14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="G14" t="n">
         <v>12</v>
       </c>
       <c r="H14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I14" t="n">
-        <v>0.571</v>
+        <v>0.522</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1672,31 +1672,31 @@
         <v>12</v>
       </c>
       <c r="N14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O14" t="n">
-        <v>0.6</v>
+        <v>0.571</v>
       </c>
       <c r="P14" t="n">
+        <v>0.522</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>7</v>
+      </c>
+      <c r="S14" t="n">
         <v>0.571</v>
       </c>
-      <c r="Q14" t="n">
-        <v>3</v>
-      </c>
-      <c r="R14" t="n">
-        <v>5</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0.6</v>
-      </c>
       <c r="T14" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="U14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="V14" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="W14" t="n">
         <v>8</v>
@@ -1708,13 +1708,13 @@
         <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB14" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
@@ -1816,19 +1816,19 @@
         <v>22</v>
       </c>
       <c r="D16" t="n">
+        <v>4</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>33</v>
+      </c>
+      <c r="G16" t="n">
         <v>3</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>14</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1</v>
-      </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I16" t="n">
         <v>0.333</v>
@@ -1837,40 +1837,40 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P16" t="n">
         <v>0.333</v>
       </c>
       <c r="Q16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S16" t="n">
         <v>1</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16" t="n">
         <v>5</v>
       </c>
       <c r="V16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W16" t="n">
         <v>3</v>
@@ -1885,10 +1885,10 @@
         <v>1</v>
       </c>
       <c r="AA16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB16" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -2068,77 +2068,77 @@
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>6000</v>
+        <v>6240</v>
       </c>
       <c r="G19" t="n">
-        <v>1026</v>
+        <v>1061</v>
       </c>
       <c r="H19" t="n">
-        <v>2182</v>
+        <v>2266</v>
       </c>
       <c r="I19" t="n">
-        <v>0.47</v>
+        <v>0.468</v>
       </c>
       <c r="J19" t="n">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="K19" t="n">
-        <v>740</v>
+        <v>766</v>
       </c>
       <c r="L19" t="n">
-        <v>0.369</v>
+        <v>0.366</v>
       </c>
       <c r="M19" t="n">
-        <v>753</v>
+        <v>781</v>
       </c>
       <c r="N19" t="n">
-        <v>1442</v>
+        <v>1500</v>
       </c>
       <c r="O19" t="n">
-        <v>0.522</v>
+        <v>0.521</v>
       </c>
       <c r="P19" t="n">
-        <v>0.533</v>
+        <v>0.53</v>
       </c>
       <c r="Q19" t="n">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="R19" t="n">
-        <v>502</v>
+        <v>523</v>
       </c>
       <c r="S19" t="n">
-        <v>0.825</v>
+        <v>0.82</v>
       </c>
       <c r="T19" t="n">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="U19" t="n">
-        <v>870</v>
+        <v>896</v>
       </c>
       <c r="V19" t="n">
-        <v>1095</v>
+        <v>1132</v>
       </c>
       <c r="W19" t="n">
-        <v>585</v>
+        <v>606</v>
       </c>
       <c r="X19" t="n">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Y19" t="n">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Z19" t="n">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="AA19" t="n">
-        <v>466</v>
+        <v>483</v>
       </c>
       <c r="AB19" t="n">
-        <v>2739</v>
+        <v>2831</v>
       </c>
     </row>
   </sheetData>
